--- a/input_filepaths_sorted.xlsx
+++ b/input_filepaths_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ailich\Box\WFS_Multibeam_Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134CF72-3A5C-448D-AF5F-B7310BAB86C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56265FF-723E-41B2-AF68-A9D556E4F282}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="227">
   <si>
     <t>Site</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Teledyne Reson SeaBat T50-R Dual Head</t>
   </si>
   <si>
-    <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULNA_2/Bathymetry/UlnaLedges_2A_3m.bag</t>
-  </si>
-  <si>
     <t>ULBOW</t>
   </si>
   <si>
@@ -677,6 +674,36 @@
   </si>
   <si>
     <t>Kongsberg EM1002</t>
+  </si>
+  <si>
+    <t>1_Cruises/2019_04A_HOG/Multibeam/FMGT_Projects/RADIUS_1A.fmproj/Output/Mosaic/RADIUS_1A_BS_TS_43-47_1m/RADIUS_1A_BS_TS_43-47_1m.tif</t>
+  </si>
+  <si>
+    <t>1_Cruises/2019_04A_HOG/Multibeam/FMGT_Projects/ULNA_1A.fmproj/Output/Mosaic/ULNA_1A_BS_TS_43-47_1m/ULNA_1A_BS_TS_43-47_1m.tif</t>
+  </si>
+  <si>
+    <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/RADIUS_2A.fmproj/Output/Mosaic/RADIUS_2A_BS_TS_43-47_1m/RADIUS_2A_BS_TS_43-47_1m.tif</t>
+  </si>
+  <si>
+    <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULBOW_1A.fmproj/Output/Mosaic/ULBOW_1A_BS_TS_43-47_1m/ULBOW_1A_BS_TS_43-47_1m.tif</t>
+  </si>
+  <si>
+    <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULBOW_1B.fmproj/Output/Mosaic/ULBOW_1B_BS_TS_43-47_1m/ULBOW_1B_BS_TS_43-47_1m.tif</t>
+  </si>
+  <si>
+    <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULNA_2A.fmproj/Output/Mosaic/ULNA_2A_BS_TS_43-47_1m/ULNA_2A_BS_TS_43-47_1m.tif</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/Qimera_Project/2019-04B-WB2-CBASS/Export/ULNA_2A_3m.bag</t>
+  </si>
+  <si>
+    <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/Qimera_Project/2019-04B-WB2-CBASS/Export/ULNA_2B_3m.bag</t>
+  </si>
+  <si>
+    <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULNA_2B.fmproj/Output/Mosaic/ULNA_2B_BS_TS_43-47_1m/ULNA_2B_BS_TS_43-47_1m.tif</t>
   </si>
 </sst>
 </file>
@@ -1538,13 +1565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
+      <selection pane="bottomRight" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1591,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1585,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1681,19 +1708,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
         <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>79</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
@@ -1713,19 +1740,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M5" t="s">
         <v>18</v>
@@ -1745,19 +1772,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
         <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
       </c>
       <c r="M6" t="s">
         <v>18</v>
@@ -1777,19 +1804,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
         <v>18</v>
@@ -1809,19 +1836,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
       </c>
       <c r="M8" t="s">
         <v>18</v>
@@ -1841,19 +1868,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
@@ -1873,19 +1900,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
         <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
       </c>
       <c r="M10" t="s">
         <v>18</v>
@@ -1905,19 +1932,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s">
         <v>18</v>
@@ -1937,19 +1964,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
         <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>61</v>
       </c>
       <c r="M12" t="s">
         <v>18</v>
@@ -1969,19 +1996,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M13" t="s">
         <v>18</v>
@@ -2001,19 +2028,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M14" t="s">
         <v>18</v>
@@ -2024,13 +2051,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -2050,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -2065,7 +2092,7 @@
         <v>26</v>
       </c>
       <c r="O16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P16">
         <v>400</v>
@@ -2082,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -2094,7 +2121,7 @@
         <v>26</v>
       </c>
       <c r="O17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P17">
         <v>400</v>
@@ -2105,19 +2132,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
         <v>63</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" t="s">
-        <v>64</v>
       </c>
       <c r="M18" t="s">
         <v>18</v>
@@ -2134,13 +2161,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -2160,19 +2187,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
       <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
         <v>65</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" t="s">
-        <v>66</v>
       </c>
       <c r="M20" t="s">
         <v>18</v>
@@ -2189,13 +2216,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
@@ -2221,7 +2248,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
@@ -2236,7 +2263,7 @@
         <v>26</v>
       </c>
       <c r="O22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P22">
         <v>400</v>
@@ -2253,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -2265,7 +2292,7 @@
         <v>26</v>
       </c>
       <c r="O23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P23">
         <v>400</v>
@@ -2276,19 +2303,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
         <v>67</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
         <v>68</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" t="s">
-        <v>69</v>
       </c>
       <c r="M24" t="s">
         <v>18</v>
@@ -2305,13 +2332,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
         <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>68</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -2395,19 +2422,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>1807</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M28" t="s">
         <v>18</v>
@@ -2421,13 +2448,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>1807</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
@@ -2444,19 +2471,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30">
         <v>1808</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M30" t="s">
         <v>18</v>
@@ -2470,13 +2497,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>1808</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -2493,19 +2520,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
       </c>
       <c r="K32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M32" t="s">
         <v>18</v>
@@ -2519,13 +2546,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -2603,10 +2630,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
@@ -2615,7 +2642,7 @@
         <v>16</v>
       </c>
       <c r="K36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M36" t="s">
         <v>18</v>
@@ -2632,10 +2659,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
         <v>29</v>
@@ -2658,10 +2685,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
@@ -2670,7 +2697,7 @@
         <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M38" t="s">
         <v>18</v>
@@ -2681,10 +2708,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
         <v>29</v>
@@ -2829,7 +2856,7 @@
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
         <v>16</v>
@@ -2861,10 +2888,13 @@
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
         <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>217</v>
       </c>
       <c r="M45" t="s">
         <v>18</v>
@@ -2890,7 +2920,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E46" t="s">
         <v>16</v>
@@ -2922,10 +2952,13 @@
         <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
+      </c>
+      <c r="K47" t="s">
+        <v>218</v>
       </c>
       <c r="M47" t="s">
         <v>18</v>
@@ -2951,7 +2984,7 @@
         <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E48" t="s">
         <v>16</v>
@@ -2983,10 +3016,13 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
+      </c>
+      <c r="K49" t="s">
+        <v>219</v>
       </c>
       <c r="M49" t="s">
         <v>18</v>
@@ -3006,19 +3042,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
       </c>
       <c r="K50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M50" t="s">
         <v>18</v>
@@ -3038,16 +3074,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
         <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
+      </c>
+      <c r="K51" t="s">
+        <v>220</v>
       </c>
       <c r="M51" t="s">
         <v>18</v>
@@ -3067,19 +3106,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
         <v>48</v>
-      </c>
-      <c r="D52" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" t="s">
-        <v>49</v>
       </c>
       <c r="M52" t="s">
         <v>18</v>
@@ -3099,16 +3138,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
+      </c>
+      <c r="K53" t="s">
+        <v>221</v>
       </c>
       <c r="M53" t="s">
         <v>18</v>
@@ -3134,13 +3176,13 @@
         <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E54" t="s">
         <v>16</v>
       </c>
       <c r="K54" t="s">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="M54" t="s">
         <v>18</v>
@@ -3166,10 +3208,13 @@
         <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
+      </c>
+      <c r="K55" t="s">
+        <v>222</v>
       </c>
       <c r="M55" t="s">
         <v>18</v>
@@ -3189,17 +3234,17 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="1"/>
       <c r="K56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -3207,13 +3252,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
       </c>
       <c r="M57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -3221,17 +3266,17 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="1"/>
       <c r="K58" t="s">
+        <v>92</v>
+      </c>
+      <c r="M58" t="s">
         <v>93</v>
-      </c>
-      <c r="M58" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -3239,16 +3284,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -3256,24 +3301,24 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="1"/>
       <c r="K60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
@@ -3284,23 +3329,23 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P61" s="3">
         <v>300</v>
@@ -3311,23 +3356,23 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
         <v>16</v>
       </c>
       <c r="F62" s="1"/>
       <c r="K62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P62" s="3">
         <v>300</v>
@@ -3338,22 +3383,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>21</v>
       </c>
       <c r="K63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P63" s="3">
         <v>300</v>
@@ -3364,7 +3409,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64">
         <v>761401</v>
@@ -3373,13 +3418,13 @@
         <v>16</v>
       </c>
       <c r="K64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -3387,7 +3432,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65">
         <v>181</v>
@@ -3396,13 +3441,13 @@
         <v>16</v>
       </c>
       <c r="K65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -3410,7 +3455,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C66">
         <v>197</v>
@@ -3419,13 +3464,13 @@
         <v>16</v>
       </c>
       <c r="K66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -3433,7 +3478,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C67">
         <v>240</v>
@@ -3442,13 +3487,13 @@
         <v>16</v>
       </c>
       <c r="K67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -3456,22 +3501,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E68" t="s">
         <v>16</v>
       </c>
       <c r="K68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -3479,22 +3524,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
       </c>
       <c r="K69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -3502,22 +3547,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E70" t="s">
         <v>16</v>
       </c>
       <c r="K70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -3525,22 +3570,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" t="s">
         <v>16</v>
       </c>
       <c r="K71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -3548,22 +3593,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E72" t="s">
         <v>16</v>
       </c>
       <c r="K72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -3571,22 +3616,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E73" t="s">
         <v>16</v>
       </c>
       <c r="K73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -3594,22 +3639,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
         <v>16</v>
       </c>
       <c r="K74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -3617,22 +3662,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E75" t="s">
         <v>16</v>
       </c>
       <c r="K75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -3640,22 +3685,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
       </c>
       <c r="K76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -3663,22 +3708,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
         <v>16</v>
       </c>
       <c r="K77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -3686,22 +3731,22 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E78" t="s">
         <v>16</v>
       </c>
       <c r="K78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -3709,22 +3754,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
         <v>16</v>
       </c>
       <c r="K79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -3732,22 +3777,22 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E80" t="s">
         <v>16</v>
       </c>
       <c r="K80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -3755,22 +3800,22 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E81" t="s">
         <v>16</v>
       </c>
       <c r="K81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -3778,22 +3823,22 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E82" t="s">
         <v>16</v>
       </c>
       <c r="K82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
@@ -3801,22 +3846,22 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E83" t="s">
         <v>16</v>
       </c>
       <c r="K83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -3824,22 +3869,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E84" t="s">
         <v>16</v>
       </c>
       <c r="K84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -3847,22 +3892,22 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E85" t="s">
         <v>16</v>
       </c>
       <c r="K85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -3870,22 +3915,22 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E86" t="s">
         <v>16</v>
       </c>
       <c r="K86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -3893,22 +3938,22 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E87" t="s">
         <v>16</v>
       </c>
       <c r="K87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -3916,22 +3961,22 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E88" t="s">
         <v>16</v>
       </c>
       <c r="K88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -3939,22 +3984,22 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E89" t="s">
         <v>16</v>
       </c>
       <c r="K89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -3962,22 +4007,22 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
       </c>
       <c r="K90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -3985,22 +4030,22 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E91" t="s">
         <v>16</v>
       </c>
       <c r="K91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -4008,22 +4053,22 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E92" t="s">
         <v>16</v>
       </c>
       <c r="K92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -4031,22 +4076,22 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E93" t="s">
         <v>16</v>
       </c>
       <c r="K93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -4054,22 +4099,22 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E94" t="s">
         <v>16</v>
       </c>
       <c r="K94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -4077,22 +4122,22 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E95" t="s">
         <v>16</v>
       </c>
       <c r="K95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -4100,22 +4145,22 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E96" t="s">
         <v>16</v>
       </c>
       <c r="K96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -4123,22 +4168,22 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E97" t="s">
         <v>16</v>
       </c>
       <c r="K97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -4146,22 +4191,22 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E98" t="s">
         <v>16</v>
       </c>
       <c r="K98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -4169,22 +4214,22 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E99" t="s">
         <v>16</v>
       </c>
       <c r="K99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -4192,22 +4237,22 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E100" t="s">
         <v>16</v>
       </c>
       <c r="K100" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -4215,22 +4260,22 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E101" t="s">
         <v>16</v>
       </c>
       <c r="K101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -4238,22 +4283,22 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E102" t="s">
         <v>16</v>
       </c>
       <c r="K102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -4261,22 +4306,22 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C103" t="s">
+        <v>162</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" t="s">
+        <v>204</v>
+      </c>
+      <c r="M103" t="s">
         <v>163</v>
       </c>
-      <c r="E103" t="s">
-        <v>16</v>
-      </c>
-      <c r="K103" t="s">
-        <v>205</v>
-      </c>
-      <c r="M103" t="s">
-        <v>164</v>
-      </c>
       <c r="O103" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -4284,25 +4329,25 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" t="s">
         <v>81</v>
       </c>
-      <c r="C104" t="s">
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" t="s">
         <v>82</v>
       </c>
-      <c r="E104" t="s">
-        <v>16</v>
-      </c>
-      <c r="K104" t="s">
+      <c r="M104" t="s">
         <v>83</v>
       </c>
-      <c r="M104" t="s">
-        <v>84</v>
-      </c>
       <c r="N104" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O104" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="O104" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="P104" s="3">
         <v>300</v>
@@ -4313,25 +4358,25 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" t="s">
         <v>81</v>
-      </c>
-      <c r="C105" t="s">
-        <v>82</v>
       </c>
       <c r="E105" t="s">
         <v>21</v>
       </c>
       <c r="K105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N105" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O105" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="O105" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="P105" s="3">
         <v>300</v>
@@ -4342,25 +4387,25 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C106" t="s">
+        <v>85</v>
+      </c>
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+      <c r="K106" t="s">
         <v>86</v>
       </c>
-      <c r="E106" t="s">
-        <v>16</v>
-      </c>
-      <c r="K106" t="s">
-        <v>87</v>
-      </c>
       <c r="M106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N106" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O106" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="O106" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="P106" s="3">
         <v>300</v>
@@ -4371,25 +4416,25 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C107" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E107" t="s">
         <v>21</v>
       </c>
       <c r="K107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N107" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O107" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="O107" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="P107" s="3">
         <v>300</v>
@@ -4400,25 +4445,25 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C108" t="s">
+        <v>88</v>
+      </c>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" t="s">
         <v>89</v>
       </c>
-      <c r="E108" t="s">
-        <v>16</v>
-      </c>
-      <c r="K108" t="s">
-        <v>90</v>
-      </c>
       <c r="M108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N108" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O108" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="O108" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="P108" s="3">
         <v>300</v>
@@ -4429,25 +4474,25 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E109" t="s">
         <v>21</v>
       </c>
       <c r="K109" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N109" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O109" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="O109" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="P109" s="3">
         <v>300</v>
@@ -4458,16 +4503,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>98</v>
+      </c>
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110" t="s">
         <v>99</v>
       </c>
-      <c r="E110" t="s">
-        <v>16</v>
-      </c>
-      <c r="K110" t="s">
-        <v>100</v>
-      </c>
       <c r="M110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
@@ -4478,16 +4523,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E111" t="s">
         <v>21</v>
       </c>
       <c r="K111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
@@ -4498,22 +4543,22 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>101</v>
+      </c>
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112" t="s">
         <v>102</v>
       </c>
-      <c r="E112" t="s">
-        <v>16</v>
-      </c>
-      <c r="K112" t="s">
-        <v>103</v>
-      </c>
       <c r="M112" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P112" s="3">
         <v>300</v>
@@ -4524,19 +4569,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E113" t="s">
         <v>21</v>
       </c>
       <c r="M113" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O113" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P113" s="3">
         <v>300</v>
@@ -4547,22 +4592,22 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>103</v>
+      </c>
+      <c r="E114" t="s">
+        <v>16</v>
+      </c>
+      <c r="K114" t="s">
         <v>104</v>
       </c>
-      <c r="E114" t="s">
-        <v>16</v>
-      </c>
-      <c r="K114" t="s">
-        <v>105</v>
-      </c>
       <c r="M114" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P114" s="3">
         <v>95</v>
@@ -4573,22 +4618,22 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E115" t="s">
         <v>21</v>
       </c>
       <c r="K115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O115" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P115" s="3">
         <v>95</v>
@@ -4599,25 +4644,25 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" t="s">
+        <v>81</v>
+      </c>
+      <c r="E116" t="s">
+        <v>16</v>
+      </c>
+      <c r="K116" t="s">
         <v>112</v>
       </c>
-      <c r="C116" t="s">
-        <v>82</v>
-      </c>
-      <c r="E116" t="s">
-        <v>16</v>
-      </c>
-      <c r="K116" t="s">
-        <v>113</v>
-      </c>
       <c r="M116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O116" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P116" s="3">
         <v>95</v>
@@ -4628,25 +4673,25 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E117" t="s">
         <v>21</v>
       </c>
       <c r="K117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O117" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P117" s="3">
         <v>95</v>
@@ -4657,25 +4702,25 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C118" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E118" t="s">
         <v>16</v>
       </c>
       <c r="K118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O118" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P118" s="3">
         <v>95</v>
@@ -4686,25 +4731,25 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E119" t="s">
         <v>21</v>
       </c>
       <c r="K119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O119" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P119" s="3">
         <v>95</v>
@@ -4715,25 +4760,25 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C120" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E120" t="s">
         <v>16</v>
       </c>
       <c r="K120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O120" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P120" s="3">
         <v>95</v>
@@ -4744,28 +4789,92 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C121" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E121" t="s">
         <v>21</v>
       </c>
       <c r="K121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N121" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O121" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P121" s="3">
         <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D122" t="s">
+        <v>118</v>
+      </c>
+      <c r="E122" t="s">
+        <v>16</v>
+      </c>
+      <c r="K122" t="s">
+        <v>225</v>
+      </c>
+      <c r="M122" t="s">
+        <v>18</v>
+      </c>
+      <c r="N122" t="s">
+        <v>26</v>
+      </c>
+      <c r="O122" t="s">
+        <v>44</v>
+      </c>
+      <c r="P122">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>42</v>
+      </c>
+      <c r="C123" t="s">
+        <v>223</v>
+      </c>
+      <c r="D123" t="s">
+        <v>118</v>
+      </c>
+      <c r="E123" t="s">
+        <v>21</v>
+      </c>
+      <c r="K123" t="s">
+        <v>226</v>
+      </c>
+      <c r="M123" t="s">
+        <v>18</v>
+      </c>
+      <c r="N123" t="s">
+        <v>26</v>
+      </c>
+      <c r="O123" t="s">
+        <v>44</v>
+      </c>
+      <c r="P123">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
